--- a/HK Loans Application - IB.xlsx
+++ b/HK Loans Application - IB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenmo/Desktop/Ivan Python/ivan python excel/p2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E410AA-1F0C-AA4D-88D3-595A5E6DA82C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21E7140-CBCC-214A-8B8B-C114F01AB85D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16560" xr2:uid="{BC072424-DE91-9145-BCE4-2B086F25BB6F}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,9 +518,6 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>485</v>
-      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
